--- a/data_year/zb/科技/按登记注册类型和行业分规模以上工业企业研究与试验发展(研究与试验发展)活动情况/按登记注册类型分规模以上工业企业研究与试验发展项目数.xlsx
+++ b/data_year/zb/科技/按登记注册类型和行业分规模以上工业企业研究与试验发展(研究与试验发展)活动情况/按登记注册类型分规模以上工业企业研究与试验发展项目数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X18"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,15 +553,15 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>145589</v>
+      </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
-        <v>53641</v>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -585,956 +585,836 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70580</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+        <v>161226</v>
+      </c>
+      <c r="C3" t="n">
+        <v>521</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15335</v>
+      </c>
+      <c r="E3" t="n">
+        <v>232158</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1527</v>
+      </c>
+      <c r="G3" t="n">
+        <v>180487</v>
+      </c>
+      <c r="H3" t="n">
+        <v>18376</v>
+      </c>
+      <c r="I3" t="n">
+        <v>13040</v>
+      </c>
+      <c r="J3" t="n">
+        <v>137</v>
+      </c>
+      <c r="K3" t="n">
+        <v>29275</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1594</v>
+      </c>
+      <c r="M3" t="n">
+        <v>11795</v>
+      </c>
+      <c r="N3" t="n">
+        <v>70357</v>
+      </c>
+      <c r="O3" t="n">
+        <v>383</v>
+      </c>
+      <c r="P3" t="n">
+        <v>10312</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>22396</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1337</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10339</v>
+      </c>
+      <c r="T3" t="n">
+        <v>52749</v>
+      </c>
+      <c r="U3" t="n">
+        <v>231</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1074</v>
+      </c>
+      <c r="W3" t="n">
+        <v>34183</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1990</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87207</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
+        <v>192755</v>
+      </c>
+      <c r="C4" t="n">
+        <v>676</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19311</v>
+      </c>
+      <c r="E4" t="n">
+        <v>287524</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2092</v>
+      </c>
+      <c r="G4" t="n">
+        <v>223459</v>
+      </c>
+      <c r="H4" t="n">
+        <v>20092</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13737</v>
+      </c>
+      <c r="J4" t="n">
+        <v>133</v>
+      </c>
+      <c r="K4" t="n">
+        <v>37648</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1789</v>
+      </c>
+      <c r="M4" t="n">
+        <v>15745</v>
+      </c>
+      <c r="N4" t="n">
+        <v>83470</v>
+      </c>
+      <c r="O4" t="n">
+        <v>625</v>
+      </c>
+      <c r="P4" t="n">
+        <v>12059</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>26417</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1596</v>
+      </c>
+      <c r="S4" t="n">
+        <v>11875</v>
+      </c>
+      <c r="T4" t="n">
+        <v>72299</v>
+      </c>
+      <c r="U4" t="n">
+        <v>225</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1320</v>
+      </c>
+      <c r="W4" t="n">
+        <v>41490</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2471</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92913</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
+        <v>205146</v>
+      </c>
+      <c r="C5" t="n">
+        <v>795</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20622</v>
+      </c>
+      <c r="E5" t="n">
+        <v>322567</v>
+      </c>
+      <c r="F5" t="n">
+        <v>556</v>
+      </c>
+      <c r="G5" t="n">
+        <v>250823</v>
+      </c>
+      <c r="H5" t="n">
+        <v>10634</v>
+      </c>
+      <c r="I5" t="n">
+        <v>18582</v>
+      </c>
+      <c r="J5" t="n">
+        <v>102</v>
+      </c>
+      <c r="K5" t="n">
+        <v>42885</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1588</v>
+      </c>
+      <c r="M5" t="n">
+        <v>19770</v>
+      </c>
+      <c r="N5" t="n">
+        <v>102726</v>
+      </c>
+      <c r="O5" t="n">
+        <v>568</v>
+      </c>
+      <c r="P5" t="n">
+        <v>13611</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>28859</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1541</v>
+      </c>
+      <c r="S5" t="n">
+        <v>13075</v>
+      </c>
+      <c r="T5" t="n">
+        <v>89657</v>
+      </c>
+      <c r="U5" t="n">
+        <v>114</v>
+      </c>
+      <c r="V5" t="n">
+        <v>625</v>
+      </c>
+      <c r="W5" t="n">
+        <v>44525</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1986</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>103234</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>210997</v>
+      </c>
+      <c r="C6" t="n">
+        <v>806</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20981</v>
+      </c>
       <c r="E6" t="n">
-        <v>143448</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
+        <v>342507</v>
+      </c>
+      <c r="F6" t="n">
+        <v>488</v>
+      </c>
+      <c r="G6" t="n">
+        <v>272155</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9964</v>
+      </c>
+      <c r="I6" t="n">
+        <v>17916</v>
+      </c>
+      <c r="J6" t="n">
+        <v>89</v>
+      </c>
+      <c r="K6" t="n">
+        <v>40934</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1457</v>
+      </c>
+      <c r="M6" t="n">
+        <v>17575</v>
+      </c>
+      <c r="N6" t="n">
+        <v>108868</v>
+      </c>
+      <c r="O6" t="n">
+        <v>473</v>
+      </c>
+      <c r="P6" t="n">
+        <v>13619</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>29418</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1705</v>
+      </c>
+      <c r="S6" t="n">
+        <v>13590</v>
+      </c>
+      <c r="T6" t="n">
+        <v>103663</v>
+      </c>
+      <c r="U6" t="n">
+        <v>107</v>
+      </c>
+      <c r="V6" t="n">
+        <v>544</v>
+      </c>
+      <c r="W6" t="n">
+        <v>46392</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2129</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133852</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+        <v>173298</v>
+      </c>
+      <c r="C7" t="n">
+        <v>564</v>
+      </c>
+      <c r="D7" t="n">
+        <v>17420</v>
+      </c>
       <c r="E7" t="n">
-        <v>194400</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
+        <v>309895</v>
+      </c>
+      <c r="F7" t="n">
+        <v>339</v>
+      </c>
+      <c r="G7" t="n">
+        <v>248443</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7739</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14542</v>
+      </c>
+      <c r="J7" t="n">
+        <v>21</v>
+      </c>
+      <c r="K7" t="n">
+        <v>33474</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1296</v>
+      </c>
+      <c r="M7" t="n">
+        <v>14055</v>
+      </c>
+      <c r="N7" t="n">
+        <v>93183</v>
+      </c>
+      <c r="O7" t="n">
+        <v>396</v>
+      </c>
+      <c r="P7" t="n">
+        <v>12735</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>27978</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1533</v>
+      </c>
+      <c r="S7" t="n">
+        <v>13237</v>
+      </c>
+      <c r="T7" t="n">
+        <v>104396</v>
+      </c>
+      <c r="U7" t="n">
+        <v>41</v>
+      </c>
+      <c r="V7" t="n">
+        <v>515</v>
+      </c>
+      <c r="W7" t="n">
+        <v>41368</v>
+      </c>
+      <c r="X7" t="n">
+        <v>862</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>145589</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
+        <v>187100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>483</v>
+      </c>
+      <c r="D8" t="n">
+        <v>17648</v>
+      </c>
+      <c r="E8" t="n">
+        <v>360997</v>
+      </c>
+      <c r="F8" t="n">
+        <v>114</v>
+      </c>
+      <c r="G8" t="n">
+        <v>293107</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6473</v>
+      </c>
+      <c r="I8" t="n">
+        <v>14786</v>
+      </c>
+      <c r="J8" t="n">
+        <v>16</v>
+      </c>
+      <c r="K8" t="n">
+        <v>36494</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1330</v>
+      </c>
+      <c r="M8" t="n">
+        <v>16821</v>
+      </c>
+      <c r="N8" t="n">
+        <v>107090</v>
+      </c>
+      <c r="O8" t="n">
+        <v>495</v>
+      </c>
+      <c r="P8" t="n">
+        <v>13402</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>31396</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1611</v>
+      </c>
+      <c r="S8" t="n">
+        <v>15716</v>
+      </c>
+      <c r="T8" t="n">
+        <v>130402</v>
+      </c>
+      <c r="U8" t="n">
+        <v>31</v>
+      </c>
+      <c r="V8" t="n">
+        <v>467</v>
+      </c>
+      <c r="W8" t="n">
+        <v>47793</v>
+      </c>
+      <c r="X8" t="n">
+        <v>737</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>161226</v>
+        <v>215506</v>
       </c>
       <c r="C9" t="n">
-        <v>521</v>
+        <v>637</v>
       </c>
       <c r="D9" t="n">
-        <v>15335</v>
+        <v>18986</v>
       </c>
       <c r="E9" t="n">
-        <v>232158</v>
+        <v>445029</v>
       </c>
       <c r="F9" t="n">
-        <v>1527</v>
+        <v>135</v>
       </c>
       <c r="G9" t="n">
-        <v>180487</v>
+        <v>367708</v>
       </c>
       <c r="H9" t="n">
-        <v>18376</v>
+        <v>6225</v>
       </c>
       <c r="I9" t="n">
-        <v>13040</v>
+        <v>16406</v>
       </c>
       <c r="J9" t="n">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="K9" t="n">
-        <v>29275</v>
+        <v>40484</v>
       </c>
       <c r="L9" t="n">
-        <v>1594</v>
+        <v>1762</v>
       </c>
       <c r="M9" t="n">
-        <v>11795</v>
+        <v>18650</v>
       </c>
       <c r="N9" t="n">
-        <v>70357</v>
+        <v>131045</v>
       </c>
       <c r="O9" t="n">
-        <v>383</v>
+        <v>649</v>
       </c>
       <c r="P9" t="n">
-        <v>10312</v>
+        <v>15300</v>
       </c>
       <c r="Q9" t="n">
-        <v>22396</v>
+        <v>36837</v>
       </c>
       <c r="R9" t="n">
-        <v>1337</v>
+        <v>1810</v>
       </c>
       <c r="S9" t="n">
-        <v>10339</v>
+        <v>18737</v>
       </c>
       <c r="T9" t="n">
-        <v>52749</v>
+        <v>172422</v>
       </c>
       <c r="U9" t="n">
-        <v>231</v>
+        <v>35</v>
       </c>
       <c r="V9" t="n">
-        <v>1074</v>
+        <v>566</v>
       </c>
       <c r="W9" t="n">
-        <v>34183</v>
+        <v>56425</v>
       </c>
       <c r="X9" t="n">
-        <v>1990</v>
+        <v>855</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>192755</v>
+        <v>213215</v>
       </c>
       <c r="C10" t="n">
-        <v>676</v>
+        <v>621</v>
       </c>
       <c r="D10" t="n">
-        <v>19311</v>
+        <v>18115</v>
       </c>
       <c r="E10" t="n">
-        <v>287524</v>
+        <v>472299</v>
       </c>
       <c r="F10" t="n">
-        <v>2092</v>
+        <v>235</v>
       </c>
       <c r="G10" t="n">
-        <v>223459</v>
+        <v>395457</v>
       </c>
       <c r="H10" t="n">
-        <v>20092</v>
+        <v>2632</v>
       </c>
       <c r="I10" t="n">
-        <v>13737</v>
+        <v>17052</v>
       </c>
       <c r="J10" t="n">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="K10" t="n">
-        <v>37648</v>
+        <v>40592</v>
       </c>
       <c r="L10" t="n">
-        <v>1789</v>
+        <v>1986</v>
       </c>
       <c r="M10" t="n">
-        <v>15745</v>
+        <v>19461</v>
       </c>
       <c r="N10" t="n">
-        <v>83470</v>
+        <v>125602</v>
       </c>
       <c r="O10" t="n">
-        <v>625</v>
+        <v>434</v>
       </c>
       <c r="P10" t="n">
-        <v>12059</v>
+        <v>14127</v>
       </c>
       <c r="Q10" t="n">
-        <v>26417</v>
+        <v>36250</v>
       </c>
       <c r="R10" t="n">
-        <v>1596</v>
+        <v>1966</v>
       </c>
       <c r="S10" t="n">
-        <v>11875</v>
+        <v>19336</v>
       </c>
       <c r="T10" t="n">
-        <v>72299</v>
+        <v>208855</v>
       </c>
       <c r="U10" t="n">
-        <v>225</v>
+        <v>28</v>
       </c>
       <c r="V10" t="n">
-        <v>1320</v>
+        <v>591</v>
       </c>
       <c r="W10" t="n">
-        <v>41490</v>
+        <v>57178</v>
       </c>
       <c r="X10" t="n">
-        <v>2471</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>205146</v>
+        <v>242806</v>
       </c>
       <c r="C11" t="n">
-        <v>795</v>
+        <v>569</v>
       </c>
       <c r="D11" t="n">
-        <v>20622</v>
+        <v>20498</v>
       </c>
       <c r="E11" t="n">
-        <v>322567</v>
+        <v>598072</v>
       </c>
       <c r="F11" t="n">
-        <v>556</v>
+        <v>190</v>
       </c>
       <c r="G11" t="n">
-        <v>250823</v>
+        <v>510509</v>
       </c>
       <c r="H11" t="n">
-        <v>10634</v>
+        <v>3890</v>
       </c>
       <c r="I11" t="n">
-        <v>18582</v>
+        <v>17676</v>
       </c>
       <c r="J11" t="n">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="K11" t="n">
-        <v>42885</v>
+        <v>46632</v>
       </c>
       <c r="L11" t="n">
-        <v>1588</v>
+        <v>2086</v>
       </c>
       <c r="M11" t="n">
-        <v>19770</v>
+        <v>22969</v>
       </c>
       <c r="N11" t="n">
-        <v>102726</v>
+        <v>145405</v>
       </c>
       <c r="O11" t="n">
-        <v>568</v>
+        <v>395</v>
       </c>
       <c r="P11" t="n">
-        <v>13611</v>
+        <v>15493</v>
       </c>
       <c r="Q11" t="n">
-        <v>28859</v>
+        <v>40931</v>
       </c>
       <c r="R11" t="n">
-        <v>1541</v>
+        <v>2187</v>
       </c>
       <c r="S11" t="n">
-        <v>13075</v>
+        <v>22539</v>
       </c>
       <c r="T11" t="n">
-        <v>89657</v>
+        <v>294868</v>
       </c>
       <c r="U11" t="n">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="V11" t="n">
-        <v>625</v>
+        <v>724</v>
       </c>
       <c r="W11" t="n">
-        <v>44525</v>
+        <v>65058</v>
       </c>
       <c r="X11" t="n">
-        <v>1986</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>210997</v>
+        <v>271592</v>
       </c>
       <c r="C12" t="n">
-        <v>806</v>
+        <v>521</v>
       </c>
       <c r="D12" t="n">
-        <v>20981</v>
+        <v>21707</v>
       </c>
       <c r="E12" t="n">
-        <v>342507</v>
+        <v>714527</v>
       </c>
       <c r="F12" t="n">
-        <v>488</v>
+        <v>384</v>
       </c>
       <c r="G12" t="n">
-        <v>272155</v>
+        <v>616687</v>
       </c>
       <c r="H12" t="n">
-        <v>9964</v>
+        <v>6476</v>
       </c>
       <c r="I12" t="n">
-        <v>17916</v>
+        <v>16973</v>
       </c>
       <c r="J12" t="n">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="K12" t="n">
-        <v>40934</v>
+        <v>51192</v>
       </c>
       <c r="L12" t="n">
-        <v>1457</v>
+        <v>2575</v>
       </c>
       <c r="M12" t="n">
-        <v>17575</v>
+        <v>25904</v>
       </c>
       <c r="N12" t="n">
-        <v>108868</v>
+        <v>141329</v>
       </c>
       <c r="O12" t="n">
-        <v>473</v>
+        <v>403</v>
       </c>
       <c r="P12" t="n">
-        <v>13619</v>
+        <v>16636</v>
       </c>
       <c r="Q12" t="n">
-        <v>29418</v>
+        <v>46648</v>
       </c>
       <c r="R12" t="n">
-        <v>1705</v>
+        <v>3855</v>
       </c>
       <c r="S12" t="n">
-        <v>13590</v>
+        <v>25378</v>
       </c>
       <c r="T12" t="n">
-        <v>103663</v>
+        <v>403872</v>
       </c>
       <c r="U12" t="n">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="V12" t="n">
-        <v>544</v>
+        <v>882</v>
       </c>
       <c r="W12" t="n">
-        <v>46392</v>
+        <v>63236</v>
       </c>
       <c r="X12" t="n">
-        <v>2129</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>173298</v>
+        <v>305564</v>
       </c>
       <c r="C13" t="n">
-        <v>564</v>
+        <v>593</v>
       </c>
       <c r="D13" t="n">
-        <v>17420</v>
+        <v>21421</v>
       </c>
       <c r="E13" t="n">
-        <v>309895</v>
+        <v>824637</v>
       </c>
       <c r="F13" t="n">
-        <v>339</v>
+        <v>277</v>
       </c>
       <c r="G13" t="n">
-        <v>248443</v>
+        <v>719142</v>
       </c>
       <c r="H13" t="n">
-        <v>7739</v>
+        <v>8378</v>
       </c>
       <c r="I13" t="n">
-        <v>14542</v>
+        <v>17810</v>
       </c>
       <c r="J13" t="n">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="K13" t="n">
-        <v>33474</v>
+        <v>55337</v>
       </c>
       <c r="L13" t="n">
-        <v>1296</v>
+        <v>5062</v>
       </c>
       <c r="M13" t="n">
-        <v>14055</v>
+        <v>27887</v>
       </c>
       <c r="N13" t="n">
-        <v>93183</v>
+        <v>154868</v>
       </c>
       <c r="O13" t="n">
-        <v>396</v>
+        <v>423</v>
       </c>
       <c r="P13" t="n">
-        <v>12735</v>
+        <v>17295</v>
       </c>
       <c r="Q13" t="n">
-        <v>27978</v>
+        <v>50158</v>
       </c>
       <c r="R13" t="n">
-        <v>1533</v>
+        <v>5548</v>
       </c>
       <c r="S13" t="n">
-        <v>13237</v>
+        <v>26430</v>
       </c>
       <c r="T13" t="n">
-        <v>104396</v>
+        <v>489679</v>
       </c>
       <c r="U13" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="V13" t="n">
-        <v>515</v>
+        <v>907</v>
       </c>
       <c r="W13" t="n">
-        <v>41368</v>
+        <v>64478</v>
       </c>
       <c r="X13" t="n">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>187100</v>
-      </c>
-      <c r="C14" t="n">
-        <v>483</v>
-      </c>
-      <c r="D14" t="n">
-        <v>17648</v>
-      </c>
-      <c r="E14" t="n">
-        <v>360997</v>
-      </c>
-      <c r="F14" t="n">
-        <v>114</v>
-      </c>
-      <c r="G14" t="n">
-        <v>293107</v>
-      </c>
-      <c r="H14" t="n">
-        <v>6473</v>
-      </c>
-      <c r="I14" t="n">
-        <v>14786</v>
-      </c>
-      <c r="J14" t="n">
-        <v>16</v>
-      </c>
-      <c r="K14" t="n">
-        <v>36494</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1330</v>
-      </c>
-      <c r="M14" t="n">
-        <v>16821</v>
-      </c>
-      <c r="N14" t="n">
-        <v>107090</v>
-      </c>
-      <c r="O14" t="n">
-        <v>495</v>
-      </c>
-      <c r="P14" t="n">
-        <v>13402</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>31396</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1611</v>
-      </c>
-      <c r="S14" t="n">
-        <v>15716</v>
-      </c>
-      <c r="T14" t="n">
-        <v>130402</v>
-      </c>
-      <c r="U14" t="n">
-        <v>31</v>
-      </c>
-      <c r="V14" t="n">
-        <v>467</v>
-      </c>
-      <c r="W14" t="n">
-        <v>47793</v>
-      </c>
-      <c r="X14" t="n">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>215506</v>
-      </c>
-      <c r="C15" t="n">
-        <v>637</v>
-      </c>
-      <c r="D15" t="n">
-        <v>18986</v>
-      </c>
-      <c r="E15" t="n">
-        <v>445029</v>
-      </c>
-      <c r="F15" t="n">
-        <v>135</v>
-      </c>
-      <c r="G15" t="n">
-        <v>367708</v>
-      </c>
-      <c r="H15" t="n">
-        <v>6225</v>
-      </c>
-      <c r="I15" t="n">
-        <v>16406</v>
-      </c>
-      <c r="J15" t="n">
-        <v>17</v>
-      </c>
-      <c r="K15" t="n">
-        <v>40484</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1762</v>
-      </c>
-      <c r="M15" t="n">
-        <v>18650</v>
-      </c>
-      <c r="N15" t="n">
-        <v>131045</v>
-      </c>
-      <c r="O15" t="n">
-        <v>649</v>
-      </c>
-      <c r="P15" t="n">
-        <v>15300</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>36837</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1810</v>
-      </c>
-      <c r="S15" t="n">
-        <v>18737</v>
-      </c>
-      <c r="T15" t="n">
-        <v>172422</v>
-      </c>
-      <c r="U15" t="n">
-        <v>35</v>
-      </c>
-      <c r="V15" t="n">
-        <v>566</v>
-      </c>
-      <c r="W15" t="n">
-        <v>56425</v>
-      </c>
-      <c r="X15" t="n">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>213215</v>
-      </c>
-      <c r="C16" t="n">
-        <v>621</v>
-      </c>
-      <c r="D16" t="n">
-        <v>18115</v>
-      </c>
-      <c r="E16" t="n">
-        <v>472299</v>
-      </c>
-      <c r="F16" t="n">
-        <v>235</v>
-      </c>
-      <c r="G16" t="n">
-        <v>395457</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2632</v>
-      </c>
-      <c r="I16" t="n">
-        <v>17052</v>
-      </c>
-      <c r="J16" t="n">
-        <v>11</v>
-      </c>
-      <c r="K16" t="n">
-        <v>40592</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1986</v>
-      </c>
-      <c r="M16" t="n">
-        <v>19461</v>
-      </c>
-      <c r="N16" t="n">
-        <v>125602</v>
-      </c>
-      <c r="O16" t="n">
-        <v>434</v>
-      </c>
-      <c r="P16" t="n">
-        <v>14127</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>36250</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1966</v>
-      </c>
-      <c r="S16" t="n">
-        <v>19336</v>
-      </c>
-      <c r="T16" t="n">
-        <v>208855</v>
-      </c>
-      <c r="U16" t="n">
-        <v>28</v>
-      </c>
-      <c r="V16" t="n">
-        <v>591</v>
-      </c>
-      <c r="W16" t="n">
-        <v>57178</v>
-      </c>
-      <c r="X16" t="n">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>242806</v>
-      </c>
-      <c r="C17" t="n">
-        <v>569</v>
-      </c>
-      <c r="D17" t="n">
-        <v>20498</v>
-      </c>
-      <c r="E17" t="n">
-        <v>598072</v>
-      </c>
-      <c r="F17" t="n">
-        <v>190</v>
-      </c>
-      <c r="G17" t="n">
-        <v>510509</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3890</v>
-      </c>
-      <c r="I17" t="n">
-        <v>17676</v>
-      </c>
-      <c r="J17" t="n">
-        <v>7</v>
-      </c>
-      <c r="K17" t="n">
-        <v>46632</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2086</v>
-      </c>
-      <c r="M17" t="n">
-        <v>22969</v>
-      </c>
-      <c r="N17" t="n">
-        <v>145405</v>
-      </c>
-      <c r="O17" t="n">
-        <v>395</v>
-      </c>
-      <c r="P17" t="n">
-        <v>15493</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>40931</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2187</v>
-      </c>
-      <c r="S17" t="n">
-        <v>22539</v>
-      </c>
-      <c r="T17" t="n">
-        <v>294868</v>
-      </c>
-      <c r="U17" t="n">
-        <v>27</v>
-      </c>
-      <c r="V17" t="n">
-        <v>724</v>
-      </c>
-      <c r="W17" t="n">
-        <v>65058</v>
-      </c>
-      <c r="X17" t="n">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>271592</v>
-      </c>
-      <c r="C18" t="n">
-        <v>521</v>
-      </c>
-      <c r="D18" t="n">
-        <v>21707</v>
-      </c>
-      <c r="E18" t="n">
-        <v>714527</v>
-      </c>
-      <c r="F18" t="n">
-        <v>384</v>
-      </c>
-      <c r="G18" t="n">
-        <v>616687</v>
-      </c>
-      <c r="H18" t="n">
-        <v>6476</v>
-      </c>
-      <c r="I18" t="n">
-        <v>16973</v>
-      </c>
-      <c r="J18" t="n">
-        <v>25</v>
-      </c>
-      <c r="K18" t="n">
-        <v>51192</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2575</v>
-      </c>
-      <c r="M18" t="n">
-        <v>25904</v>
-      </c>
-      <c r="N18" t="n">
-        <v>141329</v>
-      </c>
-      <c r="O18" t="n">
-        <v>403</v>
-      </c>
-      <c r="P18" t="n">
-        <v>16636</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>46648</v>
-      </c>
-      <c r="R18" t="n">
-        <v>3855</v>
-      </c>
-      <c r="S18" t="n">
-        <v>25378</v>
-      </c>
-      <c r="T18" t="n">
-        <v>403872</v>
-      </c>
-      <c r="U18" t="n">
-        <v>79</v>
-      </c>
-      <c r="V18" t="n">
-        <v>882</v>
-      </c>
-      <c r="W18" t="n">
-        <v>63236</v>
-      </c>
-      <c r="X18" t="n">
         <v>429</v>
       </c>
     </row>
